--- a/doc.xlsx
+++ b/doc.xlsx
@@ -571,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C95"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="P71" sqref="P71"/>
@@ -2191,6 +2191,125 @@
       <c r="C95" t="inlineStr">
         <is>
           <t>台北市內湖區文湖街５９號</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>SEVEN</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>德東門市</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>台北市士林區德行東路262號1樓</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>SEVEN</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>大村村中門市</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>彰化縣大村鄉中正西路34巷2號</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>SEVEN</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>東海岸門市</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>花蓮縣吉安鄉海岸路252號254號1樓</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>SEVEN</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>正權門市</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>台南市歸仁區中正南路一段441號</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>SEVEN</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>東洸門市</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>桃園市平鎮區平東路27號東光路16之1號1樓</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>SEVEN</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>正國門市</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>新竹市北區中正路286之1號一樓</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>FAMILY</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>全家旗津天后店</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>高雄市旗津區廟前路２８號一樓</t>
         </is>
       </c>
     </row>
